--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Danlaw Technologies India Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -606,7 +606,7 @@
         <v>0.13</v>
       </c>
       <c r="H2">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
         <v>-0.53</v>
@@ -615,7 +615,7 @@
         <v>0.62</v>
       </c>
       <c r="K2">
-        <v>0.4613333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="L2">
         <v>0.52</v>
@@ -680,7 +680,7 @@
         <v>0.14</v>
       </c>
       <c r="H3">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
         <v>-0.31</v>
@@ -689,7 +689,7 @@
         <v>0.62</v>
       </c>
       <c r="K3">
-        <v>0.4613333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="L3">
         <v>0.5</v>
@@ -754,7 +754,7 @@
         <v>20.12</v>
       </c>
       <c r="H4">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
         <v>0.52</v>
@@ -828,7 +828,7 @@
         <v>20.12</v>
       </c>
       <c r="H5">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I5">
         <v>-0.27</v>
@@ -855,7 +855,7 @@
         <v>0.03</v>
       </c>
       <c r="Q5">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R5">
         <v>0.14</v>
@@ -902,7 +902,7 @@
         <v>20.12</v>
       </c>
       <c r="H6">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I6">
         <v>0.59</v>
@@ -929,7 +929,7 @@
         <v>-1.71</v>
       </c>
       <c r="Q6">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R6">
         <v>-2.88</v>
@@ -976,10 +976,10 @@
         <v>20.12</v>
       </c>
       <c r="H7">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I7">
-        <v>0.003888888888888889</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>3.28</v>
@@ -1003,7 +1003,7 @@
         <v>-0.52</v>
       </c>
       <c r="Q7">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R7">
         <v>-0.14</v>
@@ -1077,7 +1077,7 @@
         <v>-0.05</v>
       </c>
       <c r="Q8">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R8">
         <v>0.24</v>
@@ -1151,7 +1151,7 @@
         <v>-0.16</v>
       </c>
       <c r="Q9">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R9">
         <v>0.1</v>
@@ -1207,7 +1207,7 @@
         <v>4.45</v>
       </c>
       <c r="K10">
-        <v>0.4613333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="L10">
         <v>0.18</v>
@@ -1225,7 +1225,7 @@
         <v>1.85</v>
       </c>
       <c r="Q10">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R10">
         <v>0.6</v>
@@ -1281,7 +1281,7 @@
         <v>5.04</v>
       </c>
       <c r="K11">
-        <v>0.4613333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="L11">
         <v>0.23</v>
@@ -1355,7 +1355,7 @@
         <v>5.44</v>
       </c>
       <c r="K12">
-        <v>0.4613333333333333</v>
+        <v>0.46</v>
       </c>
       <c r="L12">
         <v>0.26</v>
@@ -1743,7 +1743,7 @@
         <v>-4.29</v>
       </c>
       <c r="Q17">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R17">
         <v>-1.02</v>
@@ -1793,7 +1793,7 @@
         <v>0.03</v>
       </c>
       <c r="I18">
-        <v>0.003888888888888889</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>9.85</v>
@@ -1817,7 +1817,7 @@
         <v>-3.67</v>
       </c>
       <c r="Q18">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R18">
         <v>-0.99</v>
@@ -1864,7 +1864,7 @@
         <v>35.71</v>
       </c>
       <c r="H19">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I19">
         <v>-0.32</v>
@@ -1891,7 +1891,7 @@
         <v>4.39</v>
       </c>
       <c r="Q19">
-        <v>0.9372727272727274</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R19">
         <v>0.3</v>
@@ -1938,7 +1938,7 @@
         <v>108.93</v>
       </c>
       <c r="H20">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I20">
         <v>0.5600000000000001</v>
@@ -2012,7 +2012,7 @@
         <v>129.33</v>
       </c>
       <c r="H21">
-        <v>0.7972727272727272</v>
+        <v>0.8</v>
       </c>
       <c r="I21">
         <v>-0.29</v>
